--- a/Task3/Data/Extracted_data/FatigueSampleInventory.xlsx
+++ b/Task3/Data/Extracted_data/FatigueSampleInventory.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>24C</t>
+  </si>
+  <si>
+    <t>Running</t>
   </si>
   <si>
     <t>34C</t>
@@ -175,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,6 +220,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -232,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -255,6 +264,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -262,7 +284,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -291,6 +313,12 @@
     </xf>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -613,7 +641,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -802,35 +830,43 @@
         <v>300000</v>
       </c>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="11">
+        <v>1630000</v>
+      </c>
       <c r="F10" s="4">
         <v>88</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="5">
         <v>300000</v>
       </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12">
+        <v>1000000</v>
+      </c>
       <c r="F11" s="4">
         <v>88</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5">
         <v>300000</v>
@@ -847,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="5">
         <v>300000</v>
@@ -864,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="5">
         <v>450000</v>
@@ -883,12 +919,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="5">
         <v>450000</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="11">
+        <v>1553303</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="4">
         <v>88</v>
@@ -900,7 +938,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="5">
         <v>450000</v>
@@ -919,12 +957,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="5">
         <v>450000</v>
       </c>
-      <c r="D17" s="5"/>
+      <c r="D17" s="11">
+        <v>897380</v>
+      </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4">
         <v>88</v>
@@ -936,7 +976,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="5">
         <v>600000</v>
@@ -955,7 +995,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="5">
         <v>600000</v>
@@ -974,7 +1014,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="5">
         <v>600000</v>
@@ -993,13 +1033,15 @@
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="5">
         <v>600000</v>
       </c>
       <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="E21" s="11">
+        <v>2703203</v>
+      </c>
       <c r="F21" s="4">
         <v>88</v>
       </c>
@@ -1010,7 +1052,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="5">
         <v>750000</v>
@@ -1029,7 +1071,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="5">
         <v>750000</v>
@@ -1048,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="5">
         <v>750000</v>
@@ -1067,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" s="5">
         <v>750000</v>
@@ -1086,7 +1128,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C26" s="5">
         <v>900000</v>
@@ -1105,7 +1147,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C27" s="5">
         <v>900000</v>
@@ -1124,7 +1166,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5">
         <v>900000</v>
@@ -1143,7 +1185,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <v>900000</v>
@@ -1162,7 +1204,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="5">
         <v>2000000</v>
@@ -1179,7 +1221,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="5">
         <v>348957</v>
@@ -1192,7 +1234,7 @@
         <v>88</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1200,7 +1242,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5">
         <v>318528</v>
@@ -1213,7 +1255,7 @@
         <v>88</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1221,7 +1263,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5">
         <v>1073548</v>
@@ -1234,7 +1276,7 @@
         <v>88</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1242,7 +1284,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C34" s="5">
         <v>784540</v>
@@ -1255,7 +1297,7 @@
         <v>88</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1263,7 +1305,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5">
         <v>2000000</v>
@@ -1274,7 +1316,7 @@
         <v>84</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1282,7 +1324,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C36" s="5">
         <v>2000000</v>
@@ -1293,7 +1335,7 @@
         <v>84</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1301,7 +1343,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C37" s="5">
         <v>2000000</v>
@@ -1312,7 +1354,7 @@
         <v>80</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
